--- a/database/intel_cpu.xlsx
+++ b/database/intel_cpu.xlsx
@@ -6769,8 +6769,8 @@
   </sheetPr>
   <dimension ref="A1:C2047"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1748" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1748" activeCellId="0" sqref="B1748"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1961" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1980" activeCellId="0" sqref="A1980"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
